--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>309868.1749045966</v>
+        <v>307346.6703140775</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>315.3426039722206</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>249.0719396942749</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>176.5371734642651</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>96.79751049995569</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>22.66160460810663</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>320.060140263246</v>
       </c>
       <c r="G5" t="n">
-        <v>37.1353662779639</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>95.62239274443185</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>7.26765656529917</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.52676208877594</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>141.6706963305765</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380459</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179179435</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,13 +1427,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571659</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1288.075955546482</v>
+        <v>1084.819718160263</v>
       </c>
       <c r="C2" t="n">
-        <v>919.1134386060701</v>
+        <v>1084.819718160263</v>
       </c>
       <c r="D2" t="n">
-        <v>919.1134386060701</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="E2" t="n">
-        <v>533.3251860078259</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1848.424808397155</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>1848.424808397155</v>
       </c>
       <c r="X2" t="n">
-        <v>1674.675795610603</v>
+        <v>1474.959050136075</v>
       </c>
       <c r="Y2" t="n">
-        <v>1674.675795610603</v>
+        <v>1084.819718160263</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>821.9680821844939</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>888.4518357083933</v>
+        <v>224.2539356854971</v>
       </c>
       <c r="C4" t="n">
-        <v>719.5156527804864</v>
+        <v>224.2539356854971</v>
       </c>
       <c r="D4" t="n">
-        <v>621.7403896492181</v>
+        <v>74.13729627316133</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>1109.244414851923</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>888.4518357083933</v>
+        <v>224.2539356854971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.92672505065</v>
+        <v>1114.902695549578</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.964208110239</v>
+        <v>1114.902695549578</v>
       </c>
       <c r="D5" t="n">
-        <v>1255.964208110239</v>
+        <v>756.6369969428272</v>
       </c>
       <c r="E5" t="n">
-        <v>870.1759555119943</v>
+        <v>756.6369969428272</v>
       </c>
       <c r="F5" t="n">
-        <v>459.1900507223867</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056583</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.92672505065</v>
+        <v>1505.042027525389</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.92672505065</v>
+        <v>1114.902695549578</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4650,19 +4650,19 @@
         <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1852.283970943244</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2184.354406119406</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2431.537139951703</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>769.5800553833139</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C7" t="n">
-        <v>600.6438724554071</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D7" t="n">
-        <v>600.6438724554071</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1240.645690250514</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1240.645690250514</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>951.2285202135537</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>951.2285202135537</v>
+        <v>539.0918561847483</v>
       </c>
       <c r="Y7" t="n">
-        <v>951.2285202135537</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,10 +4820,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.213439671037</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.213439671037</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.444784400922</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.979026139843</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4887,13 +4887,13 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>364.5418494269123</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,28 +5057,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>194.800778399827</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>194.800778399827</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>194.800778399827</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,7 +5786,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,19 +5887,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,13 +6841,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.2582814363242</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.64270034434946</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>39.3404376484624</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>180.5331792043181</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>123.7723580384625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405054</v>
+        <v>40.32043864788731</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.629657607716254e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922726</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393517</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>37.12601365260463</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>987287.6527949475</v>
+        <v>987287.652794948</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1057829.795107181</v>
+        <v>1057829.79510718</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1057829.795107181</v>
+        <v>1057829.79510718</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1057829.795107181</v>
+        <v>1057829.79510718</v>
       </c>
     </row>
     <row r="13">
@@ -26314,7 +26314,7 @@
         <v>335917.986501903</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
@@ -26323,37 +26323,37 @@
         <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="M2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="N2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="O2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="M2" t="n">
-        <v>363215.9698605029</v>
-      </c>
-      <c r="N2" t="n">
-        <v>363215.969860503</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363215.9698605029</v>
-      </c>
       <c r="P2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94171.38997943723</v>
+        <v>94171.38997943749</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281079</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756606</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,7 +26445,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756573</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-965942.9594932985</v>
+        <v>-966129.3528818375</v>
       </c>
       <c r="C6" t="n">
-        <v>139804.75030698</v>
+        <v>139804.7503069801</v>
       </c>
       <c r="D6" t="n">
-        <v>-19616.51969091149</v>
+        <v>-19616.51969091163</v>
       </c>
       <c r="E6" t="n">
-        <v>-72656.22212751649</v>
+        <v>-72690.96005295186</v>
       </c>
       <c r="F6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544033</v>
       </c>
       <c r="G6" t="n">
-        <v>252756.2396798392</v>
+        <v>252721.5017544031</v>
       </c>
       <c r="H6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544032</v>
       </c>
       <c r="I6" t="n">
-        <v>252756.2396798389</v>
+        <v>252721.5017544031</v>
       </c>
       <c r="J6" t="n">
-        <v>85151.06186985639</v>
+        <v>85116.32394442068</v>
       </c>
       <c r="K6" t="n">
-        <v>252756.2396798392</v>
+        <v>252721.5017544032</v>
       </c>
       <c r="L6" t="n">
-        <v>204462.2696716482</v>
+        <v>204427.5317462125</v>
       </c>
       <c r="M6" t="n">
-        <v>167701.2117443273</v>
+        <v>167666.4738188916</v>
       </c>
       <c r="N6" t="n">
-        <v>252756.2396798393</v>
+        <v>252721.5017544033</v>
       </c>
       <c r="O6" t="n">
-        <v>252756.2396798392</v>
+        <v>252721.5017544032</v>
       </c>
       <c r="P6" t="n">
-        <v>252756.2396798389</v>
+        <v>252721.5017544033</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>78.68031877586003</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>12.66074800988585</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>51.81796251825666</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>86.81590547846548</v>
       </c>
       <c r="G5" t="n">
-        <v>374.4123364949901</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>190.6047613767687</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3169967867956</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.156279531907</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>109.3244756283254</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276458</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.2917442098577</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.632216393534616e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-2.386339083754669e-12</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>528.9386420741744</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35033,7 +35033,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>132.123422675204</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317105</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010406</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
